--- a/DataTest/Register.xlsx
+++ b/DataTest/Register.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\Selenium_Java_ThanhTester\DataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3648C71-D12A-449E-B0A6-000BB3666D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D48FD9-2741-4BA5-B911-B89661813EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>function</t>
   </si>
@@ -45,36 +45,15 @@
     <t>registerSuccessCustomerAccount</t>
   </si>
   <si>
-    <t>Email Exist Example</t>
-  </si>
-  <si>
     <t>customer@example.com</t>
   </si>
   <si>
-    <t>Email Null Example</t>
-  </si>
-  <si>
-    <t>Email Invalid Example</t>
-  </si>
-  <si>
-    <t>invalid@@gmail..com</t>
-  </si>
-  <si>
     <t>registerFailCustomerWithPasswordLessCharacter</t>
   </si>
   <si>
-    <t>Password Less Character</t>
-  </si>
-  <si>
-    <t>pass@gmail.com</t>
-  </si>
-  <si>
     <t>registerFailCustomerWithPasswordNoMatch</t>
   </si>
   <si>
-    <t>Password No Match</t>
-  </si>
-  <si>
     <t>registerFailWithoutFullname</t>
   </si>
   <si>
@@ -84,12 +63,6 @@
     <t>registerFailWithoutPassword</t>
   </si>
   <si>
-    <t>Password Null Example</t>
-  </si>
-  <si>
-    <t>passnull@gmail.com</t>
-  </si>
-  <si>
     <t>registerFailWithInvalidEmail</t>
   </si>
   <si>
@@ -103,24 +76,46 @@
   </si>
   <si>
     <t>thanhtest@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Xuân Tùng </t>
+  </si>
+  <si>
+    <t>Nguyễn Quỳnh Thanh</t>
+  </si>
+  <si>
+    <t>Dương Lý Hải</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lý Minh Hà </t>
+  </si>
+  <si>
+    <t>tung@@gmail..com</t>
+  </si>
+  <si>
+    <t>thanh@gmail.com</t>
+  </si>
+  <si>
+    <t>hailatmat7@gmail.com</t>
+  </si>
+  <si>
+    <t>minhhalatmat8@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,17 +138,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,7 +427,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -469,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D2">
         <v>123456</v>
@@ -483,10 +475,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>123456</v>
@@ -497,10 +489,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="D4">
         <v>123456</v>
@@ -511,13 +503,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D5">
         <v>123456</v>
@@ -528,13 +520,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>123456</v>
@@ -545,24 +537,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>123</v>
@@ -573,13 +565,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>123456</v>
@@ -589,10 +581,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FCA619A3-30AA-4AB2-BE33-E1CB4310481D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataTest/Register.xlsx
+++ b/DataTest/Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D48FD9-2741-4BA5-B911-B89661813EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA66314-C1DE-4365-A81F-96B65F006F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Nguyễn Thị Thanh</t>
   </si>
   <si>
-    <t>thanhtest@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Văn A</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>minhhalatmat8@gmail.com</t>
+  </si>
+  <si>
+    <t>thanhtest</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>123456</v>
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>123456</v>
@@ -506,7 +506,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -523,10 +523,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>123456</v>
@@ -540,10 +540,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -551,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>123</v>
@@ -568,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>123456</v>

--- a/DataTest/Register.xlsx
+++ b/DataTest/Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA66314-C1DE-4365-A81F-96B65F006F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95B50DF-8A32-44EA-AA9F-FCE3E27EB089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>function</t>
   </si>
@@ -48,9 +48,15 @@
     <t>customer@example.com</t>
   </si>
   <si>
+    <t>invalid@@gmail..com</t>
+  </si>
+  <si>
     <t>registerFailCustomerWithPasswordLessCharacter</t>
   </si>
   <si>
+    <t>pass@gmail.com</t>
+  </si>
+  <si>
     <t>registerFailCustomerWithPasswordNoMatch</t>
   </si>
   <si>
@@ -63,6 +69,9 @@
     <t>registerFailWithoutPassword</t>
   </si>
   <si>
+    <t>passnull@gmail.com</t>
+  </si>
+  <si>
     <t>registerFailWithInvalidEmail</t>
   </si>
   <si>
@@ -75,37 +84,7 @@
     <t>Nguyễn Thị Thanh</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Xuân Tùng </t>
-  </si>
-  <si>
-    <t>Nguyễn Quỳnh Thanh</t>
-  </si>
-  <si>
-    <t>Dương Lý Hải</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lý Minh Hà </t>
-  </si>
-  <si>
-    <t>tung@@gmail..com</t>
-  </si>
-  <si>
-    <t>thanh@gmail.com</t>
-  </si>
-  <si>
-    <t>hailatmat7@gmail.com</t>
-  </si>
-  <si>
-    <t>minhhalatmat8@gmail.com</t>
-  </si>
-  <si>
-    <t>thanhtest</t>
+    <t>thanh</t>
   </si>
 </sst>
 </file>
@@ -427,7 +406,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -461,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2">
         <v>123456</v>
@@ -475,10 +454,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>123456</v>
@@ -489,10 +468,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>123456</v>
@@ -503,10 +482,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -520,13 +499,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>123456</v>
@@ -537,24 +516,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>123</v>
@@ -565,13 +544,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>123456</v>
